--- a/pesantren/tahfidz/laporan tahfidz/2023/10. oktober.xlsx
+++ b/pesantren/tahfidz/laporan tahfidz/2023/10. oktober.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\tahfidz\laporan tahfidz\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\tahfidz\laporan tahfidz\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7C4466-34B1-4443-A7B9-8690214BDDCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8B4FAE-340D-484F-ABAA-D4F29CE1528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
   <si>
     <t>Keterangan</t>
   </si>
@@ -741,10 +741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64056AE-50B7-48BE-A3E6-59CEB8045851}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,6 +900,149 @@
         <v>54</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -909,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE61FE58-F1EF-4C91-BE8F-C67A520C3627}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pesantren/tahfidz/laporan tahfidz/2023/10. oktober.xlsx
+++ b/pesantren/tahfidz/laporan tahfidz/2023/10. oktober.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\tahfidz\laporan tahfidz\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8B4FAE-340D-484F-ABAA-D4F29CE1528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E81B9A2-F524-4CA9-826A-997DF939B2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="2" r:id="rId1"/>
-    <sheet name="2" sheetId="3" r:id="rId2"/>
-    <sheet name="3" sheetId="4" r:id="rId3"/>
+    <sheet name="١" sheetId="2" r:id="rId1"/>
+    <sheet name="٢" sheetId="3" r:id="rId2"/>
+    <sheet name="٣" sheetId="4" r:id="rId3"/>
+    <sheet name="دورة" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="119">
   <si>
     <t>Keterangan</t>
   </si>
@@ -222,12 +223,177 @@
   </si>
   <si>
     <t>Juz 5, 10B</t>
+  </si>
+  <si>
+    <t>خالص</t>
+  </si>
+  <si>
+    <t>أكمال</t>
+  </si>
+  <si>
+    <t>حانف</t>
+  </si>
+  <si>
+    <t>رفى</t>
+  </si>
+  <si>
+    <t>الاثنين</t>
+  </si>
+  <si>
+    <t>الثلثاء</t>
+  </si>
+  <si>
+    <t>الأربعاء</t>
+  </si>
+  <si>
+    <t>الخميس</t>
+  </si>
+  <si>
+    <t>الجمعة</t>
+  </si>
+  <si>
+    <t>المجموع</t>
+  </si>
+  <si>
+    <t>الجزء</t>
+  </si>
+  <si>
+    <t>٥ب</t>
+  </si>
+  <si>
+    <t>٦أ</t>
+  </si>
+  <si>
+    <t>٦ب</t>
+  </si>
+  <si>
+    <t>مريض</t>
+  </si>
+  <si>
+    <t>٧أ</t>
+  </si>
+  <si>
+    <t>٧ب</t>
+  </si>
+  <si>
+    <t>٨أ</t>
+  </si>
+  <si>
+    <t>٨ب</t>
+  </si>
+  <si>
+    <t>٧ و ٨</t>
+  </si>
+  <si>
+    <t>١ب</t>
+  </si>
+  <si>
+    <t>٢٤ صفحة</t>
+  </si>
+  <si>
+    <t>٨ صفحات</t>
+  </si>
+  <si>
+    <t>هزوان</t>
+  </si>
+  <si>
+    <t>٦أ - ٦ب</t>
+  </si>
+  <si>
+    <t>٧أ - ٨أ</t>
+  </si>
+  <si>
+    <t>٨ب - ٩ب</t>
+  </si>
+  <si>
+    <t>١٠أ -  ١أ</t>
+  </si>
+  <si>
+    <t>٢أ - ٣أ</t>
+  </si>
+  <si>
+    <t>٣ب - ٥أ</t>
+  </si>
+  <si>
+    <t>٥ب - ٦ب</t>
+  </si>
+  <si>
+    <t>٧أ - ٧ب</t>
+  </si>
+  <si>
+    <t>٢ و ٣</t>
+  </si>
+  <si>
+    <t>١أ - ٤ب</t>
+  </si>
+  <si>
+    <t>٨ب - ٩أ</t>
+  </si>
+  <si>
+    <t>٩ب - ١٠أ</t>
+  </si>
+  <si>
+    <t>١٠ب - ١أ</t>
+  </si>
+  <si>
+    <t>٢أ</t>
+  </si>
+  <si>
+    <t>٢ب</t>
+  </si>
+  <si>
+    <t>١٣ و ١٤</t>
+  </si>
+  <si>
+    <t>٣أ - ٣ب</t>
+  </si>
+  <si>
+    <t>٤أ - ٥ب</t>
+  </si>
+  <si>
+    <t>٦أ - ٨ب</t>
+  </si>
+  <si>
+    <t>٩أ - ١أ</t>
+  </si>
+  <si>
+    <t>١ب - ٢ب</t>
+  </si>
+  <si>
+    <t>٤ و ٥</t>
+  </si>
+  <si>
+    <t>٧أ - ٩أ</t>
+  </si>
+  <si>
+    <t>٩ب - ١ب</t>
+  </si>
+  <si>
+    <t>٢أ - ٣ب</t>
+  </si>
+  <si>
+    <t>٤أ</t>
+  </si>
+  <si>
+    <t>٤ب - ٥ب</t>
+  </si>
+  <si>
+    <t>١٠أ - ١٠ب</t>
+  </si>
+  <si>
+    <t>٢٩ صفحة</t>
+  </si>
+  <si>
+    <t>٢٢ صفحة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-2000401]0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,9 +431,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64056AE-50B7-48BE-A3E6-59CEB8045851}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1053,7 +1228,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,4 +1387,260 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640E81DE-66FA-46BD-A7B4-421EC07A4996}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="3.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="2.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/pesantren/tahfidz/laporan tahfidz/2023/10. oktober.xlsx
+++ b/pesantren/tahfidz/laporan tahfidz/2023/10. oktober.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\tahfidz\laporan tahfidz\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\tahfidz\laporan tahfidz\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E81B9A2-F524-4CA9-826A-997DF939B2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147B01A0-0A7A-4798-B2F4-E59B114D959A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="١" sheetId="2" r:id="rId1"/>
     <sheet name="٢" sheetId="3" r:id="rId2"/>
     <sheet name="٣" sheetId="4" r:id="rId3"/>
     <sheet name="دورة" sheetId="5" r:id="rId4"/>
+    <sheet name="4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="135">
   <si>
     <t>Keterangan</t>
   </si>
@@ -385,6 +386,54 @@
   </si>
   <si>
     <t>٢٢ صفحة</t>
+  </si>
+  <si>
+    <t>2 kali (3 kali nggak lancar)</t>
+  </si>
+  <si>
+    <t>3 juz (masih berjalan)</t>
+  </si>
+  <si>
+    <t>Juz 8, 8B</t>
+  </si>
+  <si>
+    <t>2 halaman (persiapan juziyah)</t>
+  </si>
+  <si>
+    <t>10 juz (masih berjalan)</t>
+  </si>
+  <si>
+    <t>5 juz (masih berjalan)</t>
+  </si>
+  <si>
+    <t>15 juz (masih berjalan)</t>
+  </si>
+  <si>
+    <t>6 juz (masih berjalan)</t>
+  </si>
+  <si>
+    <t>0 halaman (persiapan juziyah)</t>
+  </si>
+  <si>
+    <t>1 kali (itu juz 1 tapi)</t>
+  </si>
+  <si>
+    <t>5 kali (tapi juz 13, sampai 8A aja)</t>
+  </si>
+  <si>
+    <t>Persiapan Syahadah (udah siap juz 5, 6, dan 9)</t>
+  </si>
+  <si>
+    <t>Syahadah</t>
+  </si>
+  <si>
+    <t>Persiapan Syahadah (udah siap juz 30, 29, 1, dan 2)</t>
+  </si>
+  <si>
+    <t>Persiapan Syahadah (udah siap juz 5, 6, dan 7)</t>
+  </si>
+  <si>
+    <t>4 kali (tapi juz 4)</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640E81DE-66FA-46BD-A7B4-421EC07A4996}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1643,4 +1692,185 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCF68B2-E7CE-4A90-82D9-2C33BB549202}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>